--- a/Latest Scrumboard - Bus Reservation.xlsx
+++ b/Latest Scrumboard - Bus Reservation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b911836209075e32/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Project Repository\Bus_Reservation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{880D678E-39A2-4483-8387-CDA9F74413DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB34D16E-1E0F-4295-800D-E5573A5BAC2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{E82DDFE7-BD91-4970-9613-C07E27648F73}"/>
   </bookViews>
@@ -150,7 +150,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -166,6 +166,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -182,26 +206,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,7 +556,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -533,99 +570,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="6" t="s">
         <v>16</v>
       </c>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B6" s="13"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="7"/>
+    </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="D7" s="9"/>
+      <c r="E7" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
+      <c r="B8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="15" t="s">
         <v>22</v>
       </c>
     </row>
